--- a/biology/Histoire de la zoologie et de la botanique/Alexandre_Mikhaïlovitch_Nikolski/Alexandre_Mikhaïlovitch_Nikolski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexandre_Mikhaïlovitch_Nikolski/Alexandre_Mikhaïlovitch_Nikolski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_Mikha%C3%AFlovitch_Nikolski</t>
+          <t>Alexandre_Mikhaïlovitch_Nikolski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Mikhaïlovitch Nikolski (en russe : Александр Михайлович Никольский) est un herpétologiste russe, né le 18 février 1858 à Astrakhan et mort le 8 décembre 1942 à Kharkiv.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre_Mikha%C3%AFlovitch_Nikolski</t>
+          <t>Alexandre_Mikhaïlovitch_Nikolski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un chirurgien militaire, il étudie l'histoire naturelle à l'université impériale de Saint-Pétersbourg de 1877 à 1881. Il passe son doctorat en 1887 et devient professeur-assistant dans cette université.
 À la même époque, il devient le conservateur des collections zoologiques de l'université. En 1895, il prend la direction du département d'herpétologie du Muséum zoologique de l'Académie des sciences.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre_Mikha%C3%AFlovitch_Nikolski</t>
+          <t>Alexandre_Mikhaïlovitch_Nikolski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Kraig Adler, Contributions to the History of Herpetology, Society for the study of amphibians and reptiles, 1989, 202 p.  (ISBN 0-916984-19-2)
 (fr) Jean Lescure &amp; Bernard Le Garff, L'étymologie des noms d'amphibiens et de reptiles, Éditions Belin, 2006  (ISBN 2-7011-4142-7)</t>
